--- a/Karachi Bus Routes.xlsx
+++ b/Karachi Bus Routes.xlsx
@@ -16,136 +16,328 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Vertex List</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Edge List</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BC</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>CJ</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>FH</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>QR</t>
-  </si>
-  <si>
-    <t>RS</t>
+    <t>Nazimabd</t>
+  </si>
+  <si>
+    <t>Bara Maidan</t>
+  </si>
+  <si>
+    <t> Lasbela</t>
+  </si>
+  <si>
+    <t>Lawrence Road</t>
+  </si>
+  <si>
+    <t>Barness Street</t>
+  </si>
+  <si>
+    <t> Bandar Road</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>M.P.R Colony</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banaras Colony</t>
+  </si>
+  <si>
+    <t>Pathan Colony</t>
+  </si>
+  <si>
+    <t>S.I.T.E</t>
+  </si>
+  <si>
+    <t>Habib Bank</t>
+  </si>
+  <si>
+    <t>Naval colony</t>
+  </si>
+  <si>
+    <t>Mauripur</t>
+  </si>
+  <si>
+    <t>Gulbai Chowk</t>
+  </si>
+  <si>
+    <t>Juna Market</t>
+  </si>
+  <si>
+    <t>Ramswami</t>
+  </si>
+  <si>
+    <t>Garden Bara Board</t>
+  </si>
+  <si>
+    <t>Frere Road</t>
+  </si>
+  <si>
+    <t>Sadar</t>
+  </si>
+  <si>
+    <t>Goro Mandir</t>
+  </si>
+  <si>
+    <t>Teen Hatti</t>
+  </si>
+  <si>
+    <t>Nazimabad No. 2</t>
+  </si>
+  <si>
+    <t>Paposh Nagar</t>
+  </si>
+  <si>
+    <t>Abdullah College</t>
+  </si>
+  <si>
+    <t>Data Chowk Orangi Town</t>
+  </si>
+  <si>
+    <t>Azam Basti</t>
+  </si>
+  <si>
+    <t>Kalapul</t>
+  </si>
+  <si>
+    <t>Jinnah Hospital</t>
+  </si>
+  <si>
+    <t>Saddar</t>
+  </si>
+  <si>
+    <t>7th Day Hospital</t>
+  </si>
+  <si>
+    <t>Numaish</t>
+  </si>
+  <si>
+    <t>Guru Mandir</t>
+  </si>
+  <si>
+    <t>Islamia College</t>
+  </si>
+  <si>
+    <t>Jail Road</t>
+  </si>
+  <si>
+    <t>New Town Police Station</t>
+  </si>
+  <si>
+    <t> Sabzi Mandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Civic Centre</t>
+  </si>
+  <si>
+    <t>Urdu College</t>
+  </si>
+  <si>
+    <t> N.I.P.A Chowrangi</t>
+  </si>
+  <si>
+    <t> Safari Park</t>
+  </si>
+  <si>
+    <t>University Road</t>
+  </si>
+  <si>
+    <t>Safoora Goth</t>
+  </si>
+  <si>
+    <t> Karimabad</t>
+  </si>
+  <si>
+    <t>Liaquatabad</t>
+  </si>
+  <si>
+    <t>Nazimabd-BaraMaidan</t>
+  </si>
+  <si>
+    <t>Nazimabd-lasbela</t>
+  </si>
+  <si>
+    <t>Nazimabd-Lawrence Road</t>
+  </si>
+  <si>
+    <t>Nazimabd-BarnessStreet</t>
+  </si>
+  <si>
+    <t>Bara Maidan-Lasbela</t>
+  </si>
+  <si>
+    <t>BaraMaidan-LawrenceRoad</t>
+  </si>
+  <si>
+    <t>Bara Maidan-Barness Street</t>
+  </si>
+  <si>
+    <t>Bara Maidan - Tower</t>
+  </si>
+  <si>
+    <t>Tower-M.P.R colony</t>
+  </si>
+  <si>
+    <t>Lasbela-Tower</t>
+  </si>
+  <si>
+    <t>Lawrence Road-Bandar Road</t>
+  </si>
+  <si>
+    <t>Barness Street-Bandar Road</t>
+  </si>
+  <si>
+    <t>Tower-Lawrence Road</t>
+  </si>
+  <si>
+    <t>M.P.R Colony-Banaras Colony</t>
+  </si>
+  <si>
+    <t>BanarasColony-Pathan Colony</t>
+  </si>
+  <si>
+    <t>PathanColony-S.I.T.E</t>
+  </si>
+  <si>
+    <t>S.IT.E-Habib Bank</t>
+  </si>
+  <si>
+    <t>Habib Bank-Naval Colony</t>
+  </si>
+  <si>
+    <t>Naval Colony-Mauripur</t>
+  </si>
+  <si>
+    <t>Mauripur-Gulbai Chowk</t>
+  </si>
+  <si>
+    <t>Gulbai Chowk-Tower</t>
+  </si>
+  <si>
+    <t>Tower-Juna Market</t>
+  </si>
+  <si>
+    <t>Juna Market-Ramswami</t>
+  </si>
+  <si>
+    <t>Ramswami-Garden Bara Board</t>
+  </si>
+  <si>
+    <t>Garden Bara Board-M.P.R colony</t>
+  </si>
+  <si>
+    <t>Frere Road-Saddar</t>
+  </si>
+  <si>
+    <t>Sadar-Goro Mandir</t>
+  </si>
+  <si>
+    <t>Goro Mandir-Teen Hatti</t>
+  </si>
+  <si>
+    <t>Teen hatti-Nazimabad No.2</t>
+  </si>
+  <si>
+    <t>Nazimabad No2-Paposh Nagar</t>
+  </si>
+  <si>
+    <t>Paposh Nagar-Abdullah College</t>
+  </si>
+  <si>
+    <t>Abdullah College-Data Chowk Orangi town</t>
+  </si>
+  <si>
+    <t>Data Chowk orangi town-Azam Basti</t>
+  </si>
+  <si>
+    <t>Azam Basti-Kalapul</t>
+  </si>
+  <si>
+    <t>Kalapul-Jinnah Hospital</t>
+  </si>
+  <si>
+    <t>Jinnah Hospital-Saddar</t>
+  </si>
+  <si>
+    <t>Saddar-7TH DAY Hospital</t>
+  </si>
+  <si>
+    <t>7th day Hospital-Numaish</t>
+  </si>
+  <si>
+    <t>Numaish-Guru Mandir</t>
+  </si>
+  <si>
+    <t>Guru Mandir-Islamia College</t>
+  </si>
+  <si>
+    <t>Islamia College-Jail Road</t>
+  </si>
+  <si>
+    <t>Jail Road-New town police station</t>
+  </si>
+  <si>
+    <t>New Town police Stataion-Sabzi Mandi</t>
+  </si>
+  <si>
+    <t>Sabzi Mandi- Civic center</t>
+  </si>
+  <si>
+    <t>Civic center-Urdu college</t>
+  </si>
+  <si>
+    <t>Urdu college-N.I.P.A Chowrangi</t>
+  </si>
+  <si>
+    <t>N.I.P.A Chowrangi-Safari Park</t>
+  </si>
+  <si>
+    <t>Safari Park-University Road</t>
+  </si>
+  <si>
+    <t>University Road-Safoora Goth</t>
+  </si>
+  <si>
+    <t>Safoora Goth-Numaish</t>
+  </si>
+  <si>
+    <t>Karimabad-Liaquatabad</t>
+  </si>
+  <si>
+    <t>Liaquatbad-Teen Hatti</t>
+  </si>
+  <si>
+    <t>Teen Hatt-Karimabad</t>
+  </si>
+  <si>
+    <t>Ferrior Road-Goro mandir</t>
+  </si>
+  <si>
+    <t>Goro Mandir - Paposh Nagar</t>
+  </si>
+  <si>
+    <t>Paposh NagarNumaish</t>
+  </si>
+  <si>
+    <t>Numaish-Jail Road</t>
+  </si>
+  <si>
+    <t>Jail Road-Sabzi Mandi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +352,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,75 +471,6 @@
             <a:t> Bus Routes</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="2762250"/>
-          <a:ext cx="1323975" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>A to</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> S are Karachi areas  that are categorized by districts and union council.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -634,17 +764,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:I30"/>
+  <dimension ref="C3:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
@@ -665,149 +795,149 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="15.75">
       <c r="C8" s="1"/>
-      <c r="G8" s="3" t="s">
-        <v>1</v>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="15.75">
       <c r="C9" s="1"/>
-      <c r="G9" s="3" t="s">
-        <v>2</v>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="15.75">
       <c r="C10" s="1"/>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="15.75">
       <c r="C11" s="1"/>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="15.75">
       <c r="C12" s="1"/>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
+      <c r="G12" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15.75">
       <c r="C13" s="1"/>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75">
       <c r="C14" s="1"/>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="1"/>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="1"/>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="1"/>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="1"/>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:9">
@@ -815,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:9">
@@ -823,29 +953,295 @@
         <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="15.75">
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="15.75">
+      <c r="G28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="15.75">
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="15.75">
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="15.75">
+      <c r="G31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="15.75">
+      <c r="G32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="15.75">
+      <c r="G33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="15.75">
+      <c r="G34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="15.75">
+      <c r="G35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="15.75">
+      <c r="G36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="15.75">
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="15.75">
+      <c r="G38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" ht="15.75">
+      <c r="G39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="15.75">
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" ht="15.75">
+      <c r="G41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" ht="15.75">
+      <c r="G42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" ht="15.75">
+      <c r="G43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" ht="15.75">
+      <c r="G44" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="I26" s="2" t="s">
+      <c r="I44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" ht="15.75">
+      <c r="G45" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="I27" s="2" t="s">
+      <c r="I45" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" ht="15.75">
+      <c r="G46" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="I28" s="2" t="s">
+      <c r="I46" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" ht="15.75">
+      <c r="G47" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="I30" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" ht="15.75">
+      <c r="G48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="15.75">
+      <c r="G49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" ht="15.75">
+      <c r="G50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" ht="15.75">
+      <c r="G51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" ht="15.75">
+      <c r="G52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" ht="15.75">
+      <c r="G53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" ht="15.75">
+      <c r="G54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
+      <c r="I55" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9">
+      <c r="I56" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9">
+      <c r="I57" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9">
+      <c r="I58" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9">
+      <c r="I59" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9">
+      <c r="I60" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9">
+      <c r="I61" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9">
+      <c r="I62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9">
+      <c r="I63" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9">
+      <c r="I64" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
